--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H2">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I2">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J2">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.167255</v>
+        <v>0.1474273333333333</v>
       </c>
       <c r="N2">
-        <v>0.501765</v>
+        <v>0.442282</v>
       </c>
       <c r="O2">
-        <v>0.1064977723687984</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="P2">
-        <v>0.1064977723687983</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="Q2">
-        <v>5.337168767095</v>
+        <v>5.520677197334444</v>
       </c>
       <c r="R2">
-        <v>48.034518903855</v>
+        <v>49.68609477601</v>
       </c>
       <c r="S2">
-        <v>0.06176638360265916</v>
+        <v>0.09578067348001991</v>
       </c>
       <c r="T2">
-        <v>0.06176638360265915</v>
+        <v>0.09578067348001992</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H3">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I3">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J3">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.288128</v>
       </c>
       <c r="O3">
-        <v>0.2734004215636314</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="P3">
-        <v>0.2734004215636313</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="Q3">
-        <v>13.701546599744</v>
+        <v>16.07874359989333</v>
       </c>
       <c r="R3">
-        <v>123.313919397696</v>
+        <v>144.70869239904</v>
       </c>
       <c r="S3">
-        <v>0.1585662773954463</v>
+        <v>0.2789572430450958</v>
       </c>
       <c r="T3">
-        <v>0.1585662773954463</v>
+        <v>0.2789572430450959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H4">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I4">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J4">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02801</v>
+        <v>0.01780266666666666</v>
       </c>
       <c r="N4">
-        <v>0.08402999999999999</v>
+        <v>0.053408</v>
       </c>
       <c r="O4">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="P4">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="Q4">
-        <v>0.8938094356899998</v>
+        <v>0.6666523343822222</v>
       </c>
       <c r="R4">
-        <v>8.044284921209998</v>
+        <v>5.99987100944</v>
       </c>
       <c r="S4">
-        <v>0.01034394430486672</v>
+        <v>0.01156604657033499</v>
       </c>
       <c r="T4">
-        <v>0.01034394430486672</v>
+        <v>0.011566046570335</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H5">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I5">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J5">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9458613333333333</v>
+        <v>0.3334263333333333</v>
       </c>
       <c r="N5">
-        <v>2.837584</v>
+        <v>1.000279</v>
       </c>
       <c r="O5">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="P5">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="Q5">
-        <v>30.18278416949867</v>
+        <v>12.48573866056611</v>
       </c>
       <c r="R5">
-        <v>271.645057525488</v>
+        <v>112.371647945095</v>
       </c>
       <c r="S5">
-        <v>0.3493015691584067</v>
+        <v>0.2166206092219914</v>
       </c>
       <c r="T5">
-        <v>0.3493015691584068</v>
+        <v>0.2166206092219915</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,40 +797,40 @@
         <v>34.261431</v>
       </c>
       <c r="I6">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J6">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.167255</v>
+        <v>0.1474273333333333</v>
       </c>
       <c r="N6">
-        <v>0.501765</v>
+        <v>0.442282</v>
       </c>
       <c r="O6">
-        <v>0.1064977723687984</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="P6">
-        <v>0.1064977723687983</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="Q6">
-        <v>1.910131880635</v>
+        <v>1.683690469504667</v>
       </c>
       <c r="R6">
-        <v>17.191186925715</v>
+        <v>15.153214225542</v>
       </c>
       <c r="S6">
-        <v>0.02210571627383394</v>
+        <v>0.02921109156299008</v>
       </c>
       <c r="T6">
-        <v>0.02210571627383394</v>
+        <v>0.02921109156299008</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>34.261431</v>
       </c>
       <c r="I7">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J7">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>1.288128</v>
       </c>
       <c r="O7">
-        <v>0.2734004215636314</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="P7">
-        <v>0.2734004215636313</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="Q7">
         <v>4.903678732352</v>
@@ -889,10 +889,10 @@
         <v>44.133108591168</v>
       </c>
       <c r="S7">
-        <v>0.05674965789240215</v>
+        <v>0.08507609387868212</v>
       </c>
       <c r="T7">
-        <v>0.05674965789240215</v>
+        <v>0.08507609387868212</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>34.261431</v>
       </c>
       <c r="I8">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J8">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.02801</v>
+        <v>0.01780266666666666</v>
       </c>
       <c r="N8">
-        <v>0.08402999999999999</v>
+        <v>0.053408</v>
       </c>
       <c r="O8">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="P8">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="Q8">
-        <v>0.31988756077</v>
+        <v>0.2033149452053333</v>
       </c>
       <c r="R8">
-        <v>2.87898804693</v>
+        <v>1.829834506848</v>
       </c>
       <c r="S8">
-        <v>0.003702018551493758</v>
+        <v>0.003527401020607155</v>
       </c>
       <c r="T8">
-        <v>0.003702018551493759</v>
+        <v>0.003527401020607156</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>34.261431</v>
       </c>
       <c r="I9">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J9">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9458613333333333</v>
+        <v>0.3334263333333333</v>
       </c>
       <c r="N9">
-        <v>2.837584</v>
+        <v>1.000279</v>
       </c>
       <c r="O9">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="P9">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="Q9">
-        <v>10.80218760252267</v>
+        <v>3.807887771027667</v>
       </c>
       <c r="R9">
-        <v>97.21968842270401</v>
+        <v>34.270989939249</v>
       </c>
       <c r="S9">
-        <v>0.1250123599835995</v>
+        <v>0.06606473122925227</v>
       </c>
       <c r="T9">
-        <v>0.1250123599835995</v>
+        <v>0.06606473122925227</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H10">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I10">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J10">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.167255</v>
+        <v>0.1474273333333333</v>
       </c>
       <c r="N10">
-        <v>0.501765</v>
+        <v>0.442282</v>
       </c>
       <c r="O10">
-        <v>0.1064977723687984</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="P10">
-        <v>0.1064977723687983</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="Q10">
-        <v>0.1143437692466667</v>
+        <v>0.1834898773371111</v>
       </c>
       <c r="R10">
-        <v>1.02909392322</v>
+        <v>1.651408896034</v>
       </c>
       <c r="S10">
-        <v>0.001323286075832243</v>
+        <v>0.003183447138803986</v>
       </c>
       <c r="T10">
-        <v>0.001323286075832243</v>
+        <v>0.003183447138803986</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H11">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I11">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J11">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>1.288128</v>
       </c>
       <c r="O11">
-        <v>0.2734004215636314</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="P11">
-        <v>0.2734004215636313</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="Q11">
-        <v>0.2935426161493333</v>
+        <v>0.5344066652373333</v>
       </c>
       <c r="R11">
-        <v>2.641883545344</v>
+        <v>4.809659987136</v>
       </c>
       <c r="S11">
-        <v>0.003397131817264329</v>
+        <v>0.009271657892505914</v>
       </c>
       <c r="T11">
-        <v>0.003397131817264328</v>
+        <v>0.009271657892505914</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H12">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I12">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J12">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.02801</v>
+        <v>0.01780266666666666</v>
       </c>
       <c r="N12">
-        <v>0.08402999999999999</v>
+        <v>0.053408</v>
       </c>
       <c r="O12">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="P12">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="Q12">
-        <v>0.01914901782666666</v>
+        <v>0.02215741849955555</v>
       </c>
       <c r="R12">
-        <v>0.17234116044</v>
+        <v>0.199416766496</v>
       </c>
       <c r="S12">
-        <v>0.0002216091775077643</v>
+        <v>0.0003844188657671876</v>
       </c>
       <c r="T12">
-        <v>0.0002216091775077644</v>
+        <v>0.0003844188657671876</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H13">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I13">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J13">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9458613333333333</v>
+        <v>0.3334263333333333</v>
       </c>
       <c r="N13">
-        <v>2.837584</v>
+        <v>1.000279</v>
       </c>
       <c r="O13">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="P13">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="Q13">
-        <v>0.6466374699591111</v>
+        <v>0.4149865267247777</v>
       </c>
       <c r="R13">
-        <v>5.819737229632</v>
+        <v>3.734878740523</v>
       </c>
       <c r="S13">
-        <v>0.007483454199085945</v>
+        <v>0.007199785025290905</v>
       </c>
       <c r="T13">
-        <v>0.007483454199085946</v>
+        <v>0.007199785025290905</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.899486</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H14">
-        <v>29.698458</v>
+        <v>30.115763</v>
       </c>
       <c r="I14">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J14">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.167255</v>
+        <v>0.1474273333333333</v>
       </c>
       <c r="N14">
-        <v>0.501765</v>
+        <v>0.442282</v>
       </c>
       <c r="O14">
-        <v>0.1064977723687984</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="P14">
-        <v>0.1064977723687983</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="Q14">
-        <v>1.65573853093</v>
+        <v>1.479962210129556</v>
       </c>
       <c r="R14">
-        <v>14.90164677837</v>
+        <v>13.319659891166</v>
       </c>
       <c r="S14">
-        <v>0.01916165399858441</v>
+        <v>0.02567651977181889</v>
       </c>
       <c r="T14">
-        <v>0.01916165399858441</v>
+        <v>0.02567651977181889</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.899486</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H15">
-        <v>29.698458</v>
+        <v>30.115763</v>
       </c>
       <c r="I15">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J15">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.288128</v>
       </c>
       <c r="O15">
-        <v>0.2734004215636314</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="P15">
-        <v>0.2734004215636313</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="Q15">
-        <v>4.250601700736</v>
+        <v>4.310328617962666</v>
       </c>
       <c r="R15">
-        <v>38.25541530662399</v>
+        <v>38.792957561664</v>
       </c>
       <c r="S15">
-        <v>0.04919167945529986</v>
+        <v>0.0747817999842488</v>
       </c>
       <c r="T15">
-        <v>0.04919167945529986</v>
+        <v>0.0747817999842488</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.899486</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H16">
-        <v>29.698458</v>
+        <v>30.115763</v>
       </c>
       <c r="I16">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J16">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.02801</v>
+        <v>0.01780266666666666</v>
       </c>
       <c r="N16">
-        <v>0.08402999999999999</v>
+        <v>0.053408</v>
       </c>
       <c r="O16">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="P16">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="Q16">
-        <v>0.27728460286</v>
+        <v>0.1787136300337777</v>
       </c>
       <c r="R16">
-        <v>2.49556142574</v>
+        <v>1.608422670304</v>
       </c>
       <c r="S16">
-        <v>0.003208979872053745</v>
+        <v>0.003100581909219238</v>
       </c>
       <c r="T16">
-        <v>0.003208979872053745</v>
+        <v>0.003100581909219239</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.899486</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H17">
-        <v>29.698458</v>
+        <v>30.115763</v>
       </c>
       <c r="I17">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J17">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9458613333333333</v>
+        <v>0.3334263333333333</v>
       </c>
       <c r="N17">
-        <v>2.837584</v>
+        <v>1.000279</v>
       </c>
       <c r="O17">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="P17">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="Q17">
-        <v>9.363541027274666</v>
+        <v>3.347129477541889</v>
       </c>
       <c r="R17">
-        <v>84.271869245472</v>
+        <v>30.124165297877</v>
       </c>
       <c r="S17">
-        <v>0.1083630839136232</v>
+        <v>0.05807083155279941</v>
       </c>
       <c r="T17">
-        <v>0.1083630839136232</v>
+        <v>0.05807083155279941</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6568320000000001</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H18">
-        <v>1.970496</v>
+        <v>3.981532</v>
       </c>
       <c r="I18">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J18">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.167255</v>
+        <v>0.1474273333333333</v>
       </c>
       <c r="N18">
-        <v>0.501765</v>
+        <v>0.442282</v>
       </c>
       <c r="O18">
-        <v>0.1064977723687984</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="P18">
-        <v>0.1064977723687983</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="Q18">
-        <v>0.10985843616</v>
+        <v>0.1956622151137778</v>
       </c>
       <c r="R18">
-        <v>0.9887259254400002</v>
+        <v>1.760959936024</v>
       </c>
       <c r="S18">
-        <v>0.00127137787953821</v>
+        <v>0.003394630417304374</v>
       </c>
       <c r="T18">
-        <v>0.00127137787953821</v>
+        <v>0.003394630417304374</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6568320000000001</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H19">
-        <v>1.970496</v>
+        <v>3.981532</v>
       </c>
       <c r="I19">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J19">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>1.288128</v>
       </c>
       <c r="O19">
-        <v>0.2734004215636314</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="P19">
-        <v>0.2734004215636313</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="Q19">
-        <v>0.282027896832</v>
+        <v>0.5698580946773334</v>
       </c>
       <c r="R19">
-        <v>2.538251071488</v>
+        <v>5.128722852096</v>
       </c>
       <c r="S19">
-        <v>0.003263873417264646</v>
+        <v>0.009886720441214992</v>
       </c>
       <c r="T19">
-        <v>0.003263873417264646</v>
+        <v>0.00988672044121499</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6568320000000001</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H20">
-        <v>1.970496</v>
+        <v>3.981532</v>
       </c>
       <c r="I20">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J20">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1677,28 +1677,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.02801</v>
+        <v>0.01780266666666666</v>
       </c>
       <c r="N20">
-        <v>0.08402999999999999</v>
+        <v>0.053408</v>
       </c>
       <c r="O20">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="P20">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="Q20">
-        <v>0.01839786432</v>
+        <v>0.02362729567288889</v>
       </c>
       <c r="R20">
-        <v>0.16558077888</v>
+        <v>0.212645661056</v>
       </c>
       <c r="S20">
-        <v>0.0002129161723468073</v>
+        <v>0.0004099204157695588</v>
       </c>
       <c r="T20">
-        <v>0.0002129161723468073</v>
+        <v>0.0004099204157695588</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6568320000000001</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H21">
-        <v>1.970496</v>
+        <v>3.981532</v>
       </c>
       <c r="I21">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J21">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.9458613333333333</v>
+        <v>0.3334263333333333</v>
       </c>
       <c r="N21">
-        <v>2.837584</v>
+        <v>1.000279</v>
       </c>
       <c r="O21">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="P21">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="Q21">
-        <v>0.6212719912960001</v>
+        <v>0.4425158719364445</v>
       </c>
       <c r="R21">
-        <v>5.591447921664001</v>
+        <v>3.982642847428</v>
       </c>
       <c r="S21">
-        <v>0.007189902701327416</v>
+        <v>0.007677403826497127</v>
       </c>
       <c r="T21">
-        <v>0.007189902701327417</v>
+        <v>0.007677403826497125</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4491346666666667</v>
+        <v>0.630923</v>
       </c>
       <c r="H22">
-        <v>1.347404</v>
+        <v>1.892769</v>
       </c>
       <c r="I22">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J22">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.167255</v>
+        <v>0.1474273333333333</v>
       </c>
       <c r="N22">
-        <v>0.501765</v>
+        <v>0.442282</v>
       </c>
       <c r="O22">
-        <v>0.1064977723687984</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="P22">
-        <v>0.1064977723687983</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="Q22">
-        <v>0.07512001867333334</v>
+        <v>0.09301529542866667</v>
       </c>
       <c r="R22">
-        <v>0.67608016806</v>
+        <v>0.837137658858</v>
       </c>
       <c r="S22">
-        <v>0.0008693545383503961</v>
+        <v>0.001613763551399507</v>
       </c>
       <c r="T22">
-        <v>0.0008693545383503959</v>
+        <v>0.001613763551399507</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4491346666666667</v>
+        <v>0.630923</v>
       </c>
       <c r="H23">
-        <v>1.347404</v>
+        <v>1.892769</v>
       </c>
       <c r="I23">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J23">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>1.288128</v>
       </c>
       <c r="O23">
-        <v>0.2734004215636314</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="P23">
-        <v>0.2734004215636313</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="Q23">
-        <v>0.1928476466346667</v>
+        <v>0.270903194048</v>
       </c>
       <c r="R23">
-        <v>1.735628819712</v>
+        <v>2.438128746432</v>
       </c>
       <c r="S23">
-        <v>0.00223180158595402</v>
+        <v>0.004700019480641636</v>
       </c>
       <c r="T23">
-        <v>0.00223180158595402</v>
+        <v>0.004700019480641636</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4491346666666667</v>
+        <v>0.630923</v>
       </c>
       <c r="H24">
-        <v>1.347404</v>
+        <v>1.892769</v>
       </c>
       <c r="I24">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J24">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,28 +1925,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.02801</v>
+        <v>0.01780266666666666</v>
       </c>
       <c r="N24">
-        <v>0.08402999999999999</v>
+        <v>0.053408</v>
       </c>
       <c r="O24">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="P24">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="Q24">
-        <v>0.01258026201333333</v>
+        <v>0.01123211186133333</v>
       </c>
       <c r="R24">
-        <v>0.11322235812</v>
+        <v>0.101089006752</v>
       </c>
       <c r="S24">
-        <v>0.000145589791750289</v>
+        <v>0.0001948708827244719</v>
       </c>
       <c r="T24">
-        <v>0.000145589791750289</v>
+        <v>0.0001948708827244719</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4491346666666667</v>
+        <v>0.630923</v>
       </c>
       <c r="H25">
-        <v>1.347404</v>
+        <v>1.892769</v>
       </c>
       <c r="I25">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J25">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9458613333333333</v>
+        <v>0.3334263333333333</v>
       </c>
       <c r="N25">
-        <v>2.837584</v>
+        <v>1.000279</v>
       </c>
       <c r="O25">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="P25">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="Q25">
-        <v>0.4248191146595556</v>
+        <v>0.2103663425056667</v>
       </c>
       <c r="R25">
-        <v>3.823372031936</v>
+        <v>1.893297082551</v>
       </c>
       <c r="S25">
-        <v>0.004916378241508415</v>
+        <v>0.003649738835020072</v>
       </c>
       <c r="T25">
-        <v>0.004916378241508415</v>
+        <v>0.003649738835020072</v>
       </c>
     </row>
   </sheetData>
